--- a/PHPUpdateRenaultEW.xlsx
+++ b/PHPUpdateRenaultEW.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Agreement" sheetId="2" r:id="rId2"/>
-    <sheet name="Courier_Details_update" sheetId="3" r:id="rId3"/>
+    <sheet name="easy_Care_Sales" sheetId="4" r:id="rId3"/>
+    <sheet name="Courier_Details_update(Claim)" sheetId="3" r:id="rId4"/>
+    <sheet name="Courier_Deatils_Update(AMC)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="603">
   <si>
     <t>Created By:-</t>
   </si>
@@ -457,6 +459,9 @@
     <t>1) Leave city field unselected.                     2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
   </si>
   <si>
+    <t>1) Leave Vehicle Chasis No field blank.             2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
+  </si>
+  <si>
     <t>1) Leave Postal Code field blank.             2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
   </si>
   <si>
@@ -1743,12 +1748,1068 @@
   <si>
     <t>Agreement_TC_64</t>
   </si>
+  <si>
+    <t>Agreement should punched and visible on agreement page with agreement number.</t>
+  </si>
+  <si>
+    <t>Agreement punched and showing with agreement number(RIP264244 )</t>
+  </si>
+  <si>
+    <t>To verify  the status of the new agreement for (agreement number-RIP264244 )</t>
+  </si>
+  <si>
+    <r>
+      <t>status -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pending for amendment </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Status field  should show proper validation  "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pending for amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify if manager is  approving the Amendment </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is login </t>
+    </r>
+  </si>
+  <si>
+    <t>1)Enter URL
+2)Enter User name name  amd Pwd 
+3) hit on login
+4)Click on Agreement Module and select the same agreement number -RIP264244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manger should accept or reject the amendment and all the data should be same as what data user has filled in all the fields. </t>
+  </si>
+  <si>
+    <t>to verify agreement page on manger side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager is already logged </t>
+  </si>
+  <si>
+    <t>1)click on agreement 
+2) select agreement number -RIP264244</t>
+  </si>
+  <si>
+    <t>Agreement number-RIP264244 page display</t>
+  </si>
+  <si>
+    <t>manger should accept or reject the user's amendment and should display with poper all the mandatory fields with amendment details section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify Amendment Details section </t>
+  </si>
+  <si>
+    <t>To verify by selecting accept from dropdown</t>
+  </si>
+  <si>
+    <t>Amendment Details section should have with proper all the update Reasons  what user has changed on his/her side.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment Details showing  the first name, Registration no and  Update Reason fields </t>
+  </si>
+  <si>
+    <t>select Accept from status dropdown and hit on Save button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager should be able to accept the changes </t>
+  </si>
+  <si>
+    <t>changes has been done for FirstName, Last name and Reg No</t>
+  </si>
+  <si>
+    <t>To Verify the data is coming from the middleware is same as master.</t>
+  </si>
+  <si>
+    <t>All the data should mached with master data</t>
+  </si>
+  <si>
+    <t>prices are same as Dealer EW Report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prices should be same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dealer EW Report</t>
+    </r>
+  </si>
+  <si>
+    <t>1)go with Admin Credentials 
+2)Click on Report and 
+Download Dealer EW report by selecting the parameter of date 
+3)and again login with user and open agreement number</t>
+  </si>
+  <si>
+    <r>
+      <t>To verfy if the Prices  for customer and Basic are same as Dealer EW Report for agreement number -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RIP264244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To verfy if the Prices  for customer and Basic are same as Dealer EW Report for agreement number -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RIP264101 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Project Name: Renault-EW</t>
+  </si>
+  <si>
+    <t>Reviewed By:-</t>
+  </si>
+  <si>
+    <t>Developed By:</t>
+  </si>
+  <si>
+    <t>Alok Srivastava</t>
+  </si>
+  <si>
+    <t>Review Date:-</t>
+  </si>
+  <si>
+    <t>Easy Care Sales</t>
+  </si>
+  <si>
+    <t>Power ID:</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_1</t>
+  </si>
+  <si>
+    <t>to Verify if all the manadatory fields are having * and auto fetch data are not editable</t>
+  </si>
+  <si>
+    <t>User is already logged in and is on Add New Easy Care Agreement  page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter Url 
+2)Enter Admin and pwd
+3)click on Easy Care Sales click on Add Easy care Sales 
+Enter VIN number </t>
+  </si>
+  <si>
+    <t>non Editable</t>
+  </si>
+  <si>
+    <t>all the mandatory Fields should have * and Autofetch data should not be editable</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_2</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving all the mandatory fields blank.</t>
+  </si>
+  <si>
+    <t>User should not be able to create a new Easy Care Agreement and the system must display a proper and specific validation message for each mandatory field as required. " All the mandatory fields marked with * are required.</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_3</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving First Name field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for First Name field "First Name is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_4</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving Last Name field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_5</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving the  GSTIN Applicable unselected and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for GSTIN Applicable field as "GSTIN Applicable is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_6</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving GSTIN field blank and enter valid details in the remaining fields. (If Yes is selected for GSTIN Applicable)</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for GSTIN field as "GSTIN is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_7</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving Mobile Phone field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for Mobile Phone field as "Mobile Phone is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_8</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_9</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving the city field unselected and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for city field as "City is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the Vehicle Chasis No not be editable </t>
+  </si>
+  <si>
+    <t>Vehicle Chasis No is autofetched and not editable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle Chasis No should not be editable </t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_11</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving Postal Code field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for Postal Code field as "Postal Code is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_12</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving the Registration Type field unselected and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message for Registration Type field as "Registration Type is required."</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_13</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify by not selecting Does Vehicle belongs to Fleet field
+</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_15</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by leaving Odometer Reading field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <r>
+      <t>User should not be able to create new Easy Care Agreement and the system must display a proper and specific validation message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please select Fleet status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Odometer Reading.</t>
+    </r>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_16</t>
+  </si>
+  <si>
+    <r>
+      <t>To verify if the User is able to create new Easy Care Agreement by selecting</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YES from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Does Vehicle belongs to Fleet dropDown</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Leave   Last Service Odometer Reading 
+ field blank.            2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>pop up with valiadtion message reset amc plan with ok button</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_17</t>
+  </si>
+  <si>
+    <t>enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>1) Select Yes from Does Vehicle belongs to fleet dropdown 
+ and enter valid data in odometer reading            2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify by not selecting REC Plan and enter valid details in the remaining fields.
+</t>
+  </si>
+  <si>
+    <t>User should not be able to create new Easy care Agreement.</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_19</t>
+  </si>
+  <si>
+    <t>Verify by selecting any REC plan</t>
+  </si>
+  <si>
+    <t>user should be able select REC plan and User should be able to create new Easy Care Agreement</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_20</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled all the mandattory fields and Select REC plan  
+324/REC-KWID-P324-2Y-20K
+</t>
+  </si>
+  <si>
+    <t>vin number=MEEBBA006G3347401</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_22</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_23</t>
+  </si>
+  <si>
+    <t>To verify if Agreement is punched with Agreement number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Easy Care Sales </t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>should be refelect with agreement number</t>
+  </si>
+  <si>
+    <t>To verify if user is able to generate His/or her certificate</t>
+  </si>
+  <si>
+    <t>user is on Agreement Page</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Generate Agreement Certificate</t>
+    </r>
+  </si>
+  <si>
+    <t>Amc sales Report downloaded</t>
+  </si>
+  <si>
+    <t>AMC Sales report should be generated in pdf file</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_25</t>
+  </si>
+  <si>
+    <t>AMENDMENT:To verify if the User is able to Amend his/her</t>
+  </si>
+  <si>
+    <t>Click on Amendment Button</t>
+  </si>
+  <si>
+    <t>Should be able change his/her plan</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_26</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AMENDMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:To verify if the User is able to Amend his/her plan after 15 days of punching</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Agreement Page should open with Validation message "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Agreement can not amended as 15 days have elapsed .No amendment can be done after 15 day of Agreement Creation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vin Validation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:To Verify if user is able to punch new agreement</t>
+    </r>
+  </si>
+  <si>
+    <t>User is logged into the System</t>
+  </si>
+  <si>
+    <t>1)Enter Url 
+2)Enter Admin and pwd
+3)click on Easy Care Sales click on Add Easy care Sales 
+Enter VIN number to validate</t>
+  </si>
+  <si>
+    <t>1)http://13.127.10.134/renaultnew_dev/index.php?module=ProjectTask&amp;view=Edit
+2)UserName=BHJA-Bhopal
+an pwd=Welcome@003
+vin number=MEEBBA003K7679412</t>
+  </si>
+  <si>
+    <t>Nin number should validate and all the mandatory Fields should have * and Autofetched data should not be editable</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify by entering less than Last Service Odometer Reading in current Odometer Reading field
+</t>
+  </si>
+  <si>
+    <t>on agreement page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter invalid odometer reading </t>
+  </si>
+  <si>
+    <t>current Odometer Reading = 2000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User should not be able to create a new Easy Care Agreement and the system must display a proper and specific validation message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Current Odometer can not less than Last Service Odometer Reading"</t>
+    </r>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify by entering more than Last Service Odometer Reading in current Odometer Reading field
+</t>
+  </si>
+  <si>
+    <t>current Odometer Reading = 4000</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System must display a proper and specific validation message </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Ensure Odometer reading entered by you is correct" and user should </t>
+    </r>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last PMS Done DropDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: To Verify if Dorop-Down is clickable or Not and scrolled down by clicking down arrow then the drop down list showing or not.</t>
+    </r>
+  </si>
+  <si>
+    <t>user should be clickable and drop-down scrolled down on clicking the down arrow</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_31</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To verify by selecting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO PMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Dropdown List for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Last PMS Done</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NO PMS should be select from last PMS done Down </t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_32</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_33</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_34</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:TO Verify if parices are same as Master  by selecting  REC plan for 
+328/REC-KWID-P328-3Y-30K</t>
+    </r>
+  </si>
+  <si>
+    <t>customer price and basic price for the selected plan should be same as REC master.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify by selecting any REC plan for 
+329/REC-KWID-P329-4Y-40K
+</t>
+  </si>
+  <si>
+    <t>Prices:TO Verify parices should be same as Master  by selecting  REC plan for 
+329/REC-KWID-P329-4Y-40K</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_37</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_38</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_39</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_40</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify by selecting any REC plan for
+357/REC-KWID AMT-P357-2Y-20K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled all the mandattory fields and Select REC plan  
+357/REC-KWID AMT-P357-2Y-20K
+</t>
+  </si>
+  <si>
+    <t>vin number=MEEBBA006G8403694</t>
+  </si>
+  <si>
+    <t>odometer Reading=6500</t>
+  </si>
+  <si>
+    <t>Vin Number:MEEBBA006G8403694</t>
+  </si>
+  <si>
+    <t>plan selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if REC Start Period </t>
+  </si>
+  <si>
+    <t>check the REC Start Period</t>
+  </si>
+  <si>
+    <t>date is correct date same as on  punching date</t>
+  </si>
+  <si>
+    <t>REC Start Period date should be shown on the punching date</t>
+  </si>
+  <si>
+    <t>observe the data coming from the middleware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify REC Plan Details if data is comimg from the middleware is not editable </t>
+  </si>
+  <si>
+    <t>data is non-editable</t>
+  </si>
+  <si>
+    <t>data should not be editable for REC Plan Details section</t>
+  </si>
+  <si>
+    <t>To verify Rec plan Details Section if All the details is same as middleWare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled all the mandattory fields and Select REC plan  
+329/REC-KWID-P329-4Y-40K
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment Details should show bottom of the the new easy care sales agreement page with </t>
+  </si>
+  <si>
+    <t>Editing Agreement - REC12461 page display</t>
+  </si>
+  <si>
+    <t>dealer is on Editing Easy Care- REC12461page</t>
+  </si>
+  <si>
+    <t>Easy care sales  should punched and visible on agreement page with Easy care number.</t>
+  </si>
+  <si>
+    <t>Customer name- rimmy to sak
+reg number-1234567 to abc1234567</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> REC12461page display with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Amendment Details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and details should be changed</t>
+    </r>
+  </si>
+  <si>
+    <t>User is already logged in and is on Editing Easy care Sales page .</t>
+  </si>
+  <si>
+    <t>To verify  the AMC status of the new agreement for (Easy care-REC12461 )</t>
+  </si>
+  <si>
+    <r>
+      <t>AMC Status field  should show proper validation  "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pending for amendment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+  </si>
+  <si>
+    <t>1)Enter URL
+2)Enter User name name  amd Pwd 
+3) hit on login
+4)Click on Easy Care Sales Module and select -agreement number-REC12461</t>
+  </si>
+  <si>
+    <t>Agreement number--REC12461 page display</t>
+  </si>
+  <si>
+    <t>1)click on Easy Care sales 
+2) select agreement number --REC12461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to verify AMC Amendment Details section </t>
+  </si>
+  <si>
+    <t>1)https://renaultew.innov.co.in/index.php?module=ProjectTask&amp;view=Detail&amp;record=3031964
+2)usre name=S00074-Anshu
+3)Pwd-Welcome@123</t>
+  </si>
+  <si>
+    <t>to verify AMC agreement page on manger side</t>
+  </si>
+  <si>
+    <t>To verify if the AMC status has been changed or not</t>
+  </si>
+  <si>
+    <t>AMC Status-Active</t>
+  </si>
+  <si>
+    <t>AMC Status should be changed from "Pending for amendment"  to "Active"</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_42</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_43</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_44</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_45</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_46</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_47</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_48</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_49</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_50</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_51</t>
+  </si>
+  <si>
+    <t>should be same as middileware</t>
+  </si>
+  <si>
+    <t>easy care punched and showing with agreement number(REC12461page )</t>
+  </si>
+  <si>
+    <t>06.11.2020</t>
+  </si>
+  <si>
+    <t>Courier Details Update(AMC)</t>
+  </si>
+  <si>
+    <r>
+      <t>EMC Care Claim Status sholud change from approved to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Post Approval Documents Sent</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Enter url
+2)Enter valid user name and pwd
+2)click on Easy Care Claim
+3)click on courier details update
+</t>
+  </si>
+  <si>
+    <t>To verify by selecting back date for Document Received Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> logged on Document Tracking Panel Page with manager credentials</t>
+  </si>
+  <si>
+    <t>Record has been successfully Submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should not accept the </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,8 +2868,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1821,8 +2912,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1871,11 +2980,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1937,6 +3057,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1945,10 +3068,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1976,6 +3095,110 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2259,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,43 +3589,43 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="60" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2413,7 +3636,7 @@
       <c r="B6" s="11">
         <v>12889</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>44139</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2432,7 +3655,7 @@
       <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="11"/>
@@ -2448,7 +3671,7 @@
       <c r="B7" s="11">
         <v>12889</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="33">
         <v>44139</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -2479,7 +3702,7 @@
       <c r="B8" s="11">
         <v>12889</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="33">
         <v>44139</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -2510,7 +3733,7 @@
       <c r="B9" s="11">
         <v>12889</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <v>44139</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -2541,7 +3764,7 @@
       <c r="B10" s="11">
         <v>12889</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="33">
         <v>44139</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -2570,7 +3793,7 @@
       <c r="B11" s="11">
         <v>12889</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>44139</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -2596,12 +3819,12 @@
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B12" s="11">
         <v>12889</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="33">
         <v>44139</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2627,12 +3850,12 @@
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="11">
         <v>12889</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>44139</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -2658,12 +3881,12 @@
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="11">
         <v>12889</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>44139</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -2689,12 +3912,12 @@
     </row>
     <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="11">
         <v>12889</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>44139</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -2720,15 +3943,15 @@
     </row>
     <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" s="11">
         <v>12889</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>44139</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -2751,12 +3974,12 @@
     </row>
     <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" s="11">
         <v>12889</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>44139</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -2780,12 +4003,12 @@
     </row>
     <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" s="11">
         <v>12889</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="33">
         <v>44139</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -3324,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +4628,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3433,49 +4656,49 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B6" s="9">
         <v>12889</v>
@@ -3506,7 +4729,7 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="9">
         <v>12889</v>
@@ -3539,7 +4762,7 @@
     </row>
     <row r="8" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" s="9">
         <v>12889</v>
@@ -3570,7 +4793,7 @@
     </row>
     <row r="9" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B9" s="9">
         <v>12889</v>
@@ -3603,7 +4826,7 @@
     </row>
     <row r="10" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="9">
         <v>12889</v>
@@ -3638,7 +4861,7 @@
     </row>
     <row r="11" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B11" s="9">
         <v>12889</v>
@@ -3673,7 +4896,7 @@
     </row>
     <row r="12" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B12" s="9">
         <v>12889</v>
@@ -3691,14 +4914,14 @@
         <v>93</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -3708,7 +4931,7 @@
     </row>
     <row r="13" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B13" s="9">
         <v>12889</v>
@@ -3717,10 +4940,10 @@
         <v>44139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>93</v>
@@ -3731,7 +4954,7 @@
         <v>35</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -3741,7 +4964,7 @@
     </row>
     <row r="14" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B14" s="9">
         <v>12889</v>
@@ -3750,10 +4973,10 @@
         <v>44139</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3762,7 +4985,7 @@
         <v>35</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -3772,7 +4995,7 @@
     </row>
     <row r="15" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" s="9">
         <v>12889</v>
@@ -3781,13 +5004,13 @@
         <v>44139</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -3795,7 +5018,7 @@
         <v>35</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -3805,7 +5028,7 @@
     </row>
     <row r="16" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" s="9">
         <v>12889</v>
@@ -3814,21 +5037,21 @@
         <v>44139</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -3838,7 +5061,7 @@
     </row>
     <row r="17" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="9">
         <v>12889</v>
@@ -3847,21 +5070,21 @@
         <v>44139</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -3871,7 +5094,7 @@
     </row>
     <row r="18" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" s="9">
         <v>12889</v>
@@ -3880,21 +5103,21 @@
         <v>44139</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -3904,7 +5127,7 @@
     </row>
     <row r="19" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="9">
         <v>12889</v>
@@ -3913,21 +5136,21 @@
         <v>44139</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H19" s="21"/>
       <c r="I19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -3937,7 +5160,7 @@
     </row>
     <row r="20" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" s="9">
         <v>12889</v>
@@ -3946,21 +5169,21 @@
         <v>44139</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -3970,7 +5193,7 @@
     </row>
     <row r="21" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" s="9">
         <v>12889</v>
@@ -3979,10 +5202,10 @@
         <v>44139</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -3991,7 +5214,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -4001,7 +5224,7 @@
     </row>
     <row r="22" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" s="9">
         <v>12889</v>
@@ -4010,10 +5233,10 @@
         <v>44139</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -4022,7 +5245,7 @@
         <v>35</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -4032,7 +5255,7 @@
     </row>
     <row r="23" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" s="9">
         <v>12889</v>
@@ -4041,9 +5264,11 @@
         <v>44139</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
@@ -4051,7 +5276,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -4061,7 +5286,7 @@
     </row>
     <row r="24" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" s="9">
         <v>12889</v>
@@ -4070,9 +5295,11 @@
         <v>44139</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
@@ -4080,7 +5307,7 @@
         <v>35</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -4090,7 +5317,7 @@
     </row>
     <row r="25" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" s="9">
         <v>12889</v>
@@ -4099,9 +5326,11 @@
         <v>44139</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="E25" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -4109,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -4119,7 +5348,7 @@
     </row>
     <row r="26" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="9">
         <v>12889</v>
@@ -4128,10 +5357,10 @@
         <v>44139</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -4140,7 +5369,7 @@
         <v>35</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -4150,7 +5379,7 @@
     </row>
     <row r="27" spans="1:13" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="9">
         <v>12889</v>
@@ -4159,10 +5388,10 @@
         <v>44139</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -4171,7 +5400,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -4181,7 +5410,7 @@
     </row>
     <row r="28" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" s="9">
         <v>12889</v>
@@ -4214,7 +5443,7 @@
     </row>
     <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B29" s="9">
         <v>12889</v>
@@ -4232,7 +5461,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="12" t="s">
@@ -4249,7 +5478,7 @@
     </row>
     <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30" s="9">
         <v>12889</v>
@@ -4258,7 +5487,7 @@
         <v>44139</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>81</v>
@@ -4282,7 +5511,7 @@
     </row>
     <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B31" s="9">
         <v>12889</v>
@@ -4291,13 +5520,13 @@
         <v>44139</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8"/>
@@ -4305,7 +5534,7 @@
         <v>35</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -4315,7 +5544,7 @@
     </row>
     <row r="32" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B32" s="9">
         <v>12889</v>
@@ -4324,10 +5553,10 @@
         <v>44139</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>98</v>
@@ -4338,7 +5567,7 @@
         <v>35</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -4348,7 +5577,7 @@
     </row>
     <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B33" s="9">
         <v>12889</v>
@@ -4357,7 +5586,7 @@
         <v>44139</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>86</v>
@@ -4371,7 +5600,7 @@
         <v>35</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -4381,7 +5610,7 @@
     </row>
     <row r="34" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B34" s="9">
         <v>12889</v>
@@ -4393,7 +5622,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>74</v>
@@ -4414,7 +5643,7 @@
     </row>
     <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B35" s="9">
         <v>12889</v>
@@ -4423,10 +5652,10 @@
         <v>44139</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>100</v>
@@ -4437,7 +5666,7 @@
         <v>35</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -4447,7 +5676,7 @@
     </row>
     <row r="36" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B36" s="9">
         <v>12889</v>
@@ -4456,7 +5685,7 @@
         <v>44139</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>86</v>
@@ -4470,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -4480,7 +5709,7 @@
     </row>
     <row r="37" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B37" s="9">
         <v>12889</v>
@@ -4489,7 +5718,7 @@
         <v>44139</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>86</v>
@@ -4503,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -4513,7 +5742,7 @@
     </row>
     <row r="38" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B38" s="9">
         <v>12889</v>
@@ -4546,7 +5775,7 @@
     </row>
     <row r="39" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B39" s="9">
         <v>12889</v>
@@ -4555,10 +5784,10 @@
         <v>44139</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>106</v>
@@ -4569,7 +5798,7 @@
         <v>35</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -4579,7 +5808,7 @@
     </row>
     <row r="40" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B40" s="9">
         <v>12889</v>
@@ -4588,13 +5817,13 @@
         <v>44139</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4602,7 +5831,7 @@
         <v>35</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -4612,7 +5841,7 @@
     </row>
     <row r="41" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B41" s="9">
         <v>12889</v>
@@ -4621,13 +5850,13 @@
         <v>44139</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -4635,7 +5864,7 @@
         <v>35</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -4645,7 +5874,7 @@
     </row>
     <row r="42" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B42" s="9">
         <v>12889</v>
@@ -4654,13 +5883,13 @@
         <v>44139</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -4668,7 +5897,7 @@
         <v>35</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -4678,7 +5907,7 @@
     </row>
     <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B43" s="9">
         <v>12889</v>
@@ -4687,13 +5916,13 @@
         <v>44139</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -4701,7 +5930,7 @@
         <v>35</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -4711,7 +5940,7 @@
     </row>
     <row r="44" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B44" s="9">
         <v>12889</v>
@@ -4720,13 +5949,13 @@
         <v>44139</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -4734,7 +5963,7 @@
         <v>35</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -4744,7 +5973,7 @@
     </row>
     <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" s="9">
         <v>12889</v>
@@ -4753,13 +5982,13 @@
         <v>44139</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -4767,7 +5996,7 @@
         <v>35</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -4777,7 +6006,7 @@
     </row>
     <row r="46" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B46" s="9">
         <v>12889</v>
@@ -4786,13 +6015,13 @@
         <v>44139</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -4800,7 +6029,7 @@
         <v>35</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -4810,7 +6039,7 @@
     </row>
     <row r="47" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" s="9">
         <v>12889</v>
@@ -4819,13 +6048,13 @@
         <v>44139</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -4833,7 +6062,7 @@
         <v>35</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -4843,7 +6072,7 @@
     </row>
     <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" s="9">
         <v>12889</v>
@@ -4852,13 +6081,13 @@
         <v>44139</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -4866,7 +6095,7 @@
         <v>35</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -4876,7 +6105,7 @@
     </row>
     <row r="49" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" s="9">
         <v>12889</v>
@@ -4885,13 +6114,13 @@
         <v>44139</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -4899,7 +6128,7 @@
         <v>35</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -4909,7 +6138,7 @@
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B50" s="9">
         <v>12889</v>
@@ -4918,13 +6147,13 @@
         <v>44139</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -4932,7 +6161,7 @@
         <v>35</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -4942,7 +6171,7 @@
     </row>
     <row r="51" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="9">
         <v>12889</v>
@@ -4951,13 +6180,13 @@
         <v>44139</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -4965,7 +6194,7 @@
         <v>35</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -4975,7 +6204,7 @@
     </row>
     <row r="52" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" s="9">
         <v>12889</v>
@@ -4984,7 +6213,7 @@
         <v>44139</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -4994,7 +6223,7 @@
         <v>35</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -5004,7 +6233,7 @@
     </row>
     <row r="53" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" s="9">
         <v>12889</v>
@@ -5013,7 +6242,7 @@
         <v>44139</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -5023,7 +6252,7 @@
         <v>35</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -5033,7 +6262,7 @@
     </row>
     <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B54" s="9">
         <v>12889</v>
@@ -5042,7 +6271,7 @@
         <v>44139</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -5052,7 +6281,7 @@
         <v>35</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -5062,7 +6291,7 @@
     </row>
     <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B55" s="9">
         <v>12889</v>
@@ -5071,7 +6300,7 @@
         <v>44139</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -5081,7 +6310,7 @@
         <v>35</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -5091,7 +6320,7 @@
     </row>
     <row r="56" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B56" s="9">
         <v>12889</v>
@@ -5100,11 +6329,11 @@
         <v>44139</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
@@ -5112,7 +6341,7 @@
         <v>35</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -5122,7 +6351,7 @@
     </row>
     <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B57" s="9">
         <v>12889</v>
@@ -5131,23 +6360,23 @@
         <v>44139</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F57" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="12" t="s">
         <v>35</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
@@ -5157,7 +6386,7 @@
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B58" s="9">
         <v>12889</v>
@@ -5166,7 +6395,7 @@
         <v>44139</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -5176,7 +6405,7 @@
         <v>35</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -5184,9 +6413,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B59" s="9">
         <v>12889</v>
@@ -5195,289 +6424,217 @@
         <v>44139</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J59" s="6"/>
+        <v>401</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="B60" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C60" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>162</v>
+    <row r="60" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="12" t="s">
-        <v>35</v>
+        <v>403</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
-      <c r="M60" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B61" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C61" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>118</v>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="7" t="s">
+        <v>405</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>73</v>
+        <v>406</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>119</v>
+        <v>407</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="12" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
-      <c r="M61" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B62" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C62" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>164</v>
+      <c r="M61" s="9"/>
+    </row>
+    <row r="62" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>86</v>
+        <v>410</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>121</v>
+        <v>411</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="I62" s="12"/>
       <c r="J62" s="6" t="s">
-        <v>165</v>
+        <v>413</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
-      <c r="M62" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="B63" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C63" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>166</v>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="F63" s="6"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="12" t="s">
-        <v>35</v>
+        <v>417</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>167</v>
+        <v>416</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
-      <c r="M63" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="B64" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C64" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>168</v>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>123</v>
+        <v>418</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="12" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>169</v>
+        <v>419</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
-      <c r="M64" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B65" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C65" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>170</v>
+      <c r="M64" s="9"/>
+    </row>
+    <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="F65" s="6"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
-      <c r="I65" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="I65" s="12"/>
       <c r="J65" s="6" t="s">
-        <v>171</v>
+        <v>422</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
-      <c r="M65" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="B66" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C66" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>172</v>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="12" t="s">
-        <v>35</v>
+        <v>423</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
-      <c r="M66" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B67" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C67" s="10">
-        <v>44139</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>174</v>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="12" t="s">
-        <v>35</v>
+        <v>423</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>175</v>
+        <v>424</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
-      <c r="M67" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B68" s="9">
         <v>12889</v>
@@ -5486,13 +6643,13 @@
         <v>44139</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -5500,7 +6657,7 @@
         <v>35</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
@@ -5510,7 +6667,7 @@
     </row>
     <row r="69" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B69" s="9">
         <v>12889</v>
@@ -5519,13 +6676,13 @@
         <v>44139</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
@@ -5533,7 +6690,7 @@
         <v>35</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
@@ -5541,125 +6698,269 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+    <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B70" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B71" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B72" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B73" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C74" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B75" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C75" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B76" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B77" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44139</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
@@ -8360,6 +9661,126 @@
       <c r="K257" s="5"/>
       <c r="L257" s="5"/>
       <c r="M257" s="5"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+      <c r="I260" s="5"/>
+      <c r="J260" s="5"/>
+      <c r="K260" s="5"/>
+      <c r="L260" s="5"/>
+      <c r="M260" s="5"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5"/>
+      <c r="K261" s="5"/>
+      <c r="L261" s="5"/>
+      <c r="M261" s="5"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+      <c r="I262" s="5"/>
+      <c r="J262" s="5"/>
+      <c r="K262" s="5"/>
+      <c r="L262" s="5"/>
+      <c r="M262" s="5"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+      <c r="I264" s="5"/>
+      <c r="J264" s="5"/>
+      <c r="K264" s="5"/>
+      <c r="L264" s="5"/>
+      <c r="M264" s="5"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+      <c r="I265" s="5"/>
+      <c r="J265" s="5"/>
+      <c r="K265" s="5"/>
+      <c r="L265" s="5"/>
+      <c r="M265" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -8380,10 +9801,1517 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="F2" s="40"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="56">
+        <v>44141</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="I4" s="59">
+        <v>12889</v>
+      </c>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="48" t="s">
+        <v>483</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="48" t="s">
+        <v>478</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>552</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="48" t="s">
+        <v>489</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="51" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="48" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="48" t="s">
+        <v>558</v>
+      </c>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="48" t="s">
+        <v>562</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="51" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="H30" s="49"/>
+      <c r="I30" s="48" t="s">
+        <v>507</v>
+      </c>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="51" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="48" t="s">
+        <v>514</v>
+      </c>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H33" s="49"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G39" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="28" t="s">
+        <v>542</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>583</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>585</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G49" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M21"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8421,10 +11349,10 @@
       <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
@@ -8444,12 +11372,12 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="17" t="s">
@@ -8480,7 +11408,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -8490,574 +11418,574 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="60" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="25">
+      <c r="A6" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="31">
         <v>12889</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="62">
         <v>44140</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="24"/>
+        <v>301</v>
+      </c>
+      <c r="I6" s="25"/>
       <c r="J6" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="24" t="s">
         <v>302</v>
       </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="25">
+      <c r="A7" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="31">
         <v>12889</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="62">
         <v>44140</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="28"/>
+        <v>306</v>
+      </c>
+      <c r="I7" s="27"/>
       <c r="J7" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24" t="s">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="A8" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="31">
         <v>12889</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="62">
         <v>44140</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
         <v>309</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
+        <v>310</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="31">
         <v>12889</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="62">
         <v>44140</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="I9" s="24"/>
+      <c r="H9" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="J9" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="24" t="s">
-        <v>302</v>
+        <v>317</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="25">
+      <c r="A10" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="31">
         <v>12889</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="62">
         <v>44140</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="24" t="s">
-        <v>302</v>
+        <v>368</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="31">
         <v>12889</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="62">
         <v>44140</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="24" t="s">
-        <v>302</v>
+        <v>369</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12" s="25">
+      <c r="A12" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="31">
         <v>12889</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="62">
         <v>44140</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="24" t="s">
-        <v>302</v>
+        <v>324</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="31">
         <v>12889</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="62">
         <v>44140</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="24" t="s">
-        <v>302</v>
+        <v>370</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="A14" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="31">
         <v>12889</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="62">
         <v>44140</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+        <v>332</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="24" t="s">
-        <v>302</v>
+        <v>333</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="A15" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="31">
         <v>12889</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="62">
         <v>44140</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C16" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C17" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C18" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B19" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C19" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B20" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C20" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="31">
+        <v>12889</v>
+      </c>
+      <c r="C21" s="62">
+        <v>44140</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>328</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C16" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="B17" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C17" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B18" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C18" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="B19" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C19" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C20" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>349</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="25">
-        <v>12889</v>
-      </c>
-      <c r="C21" s="26">
-        <v>44140</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>327</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="24" t="s">
-        <v>302</v>
+        <v>329</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -9075,4 +12003,500 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="63" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="69"/>
+      <c r="J6" s="68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="D7" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="66" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="D9" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="D10" s="66" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="66" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="D11" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="68" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="D12" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="D13" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="D14" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="66" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="D15" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="D16" s="69" t="s">
+        <v>334</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D17" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="69" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="360" x14ac:dyDescent="0.25">
+      <c r="D18" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="D19" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="D20" s="69" t="s">
+        <v>599</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>600</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="D21" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D22" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PHPUpdateRenaultEW.xlsx
+++ b/PHPUpdateRenaultEW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="easy_Care_Sales" sheetId="4" r:id="rId3"/>
     <sheet name="Courier_Details_update(Claim)" sheetId="3" r:id="rId4"/>
     <sheet name="Courier_Deatils_Update(AMC)" sheetId="5" r:id="rId5"/>
+    <sheet name="BugReport" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="658">
   <si>
     <t>Created By:-</t>
   </si>
@@ -1341,9 +1343,6 @@
     <t>there should be a proper validation message as  "Claim is not approved."</t>
   </si>
   <si>
-    <t>Courier Details Update</t>
-  </si>
-  <si>
     <t>1)Select the Claim Number no. for which thee courier details to be update.                                               2)Click on the Courier Details Update button.</t>
   </si>
   <si>
@@ -2800,16 +2799,191 @@
   <si>
     <t xml:space="preserve">should not accept the </t>
   </si>
+  <si>
+    <t>1)Click on Easy Care Sales link under menu item.               2)Click on Add easy care button.</t>
+  </si>
+  <si>
+    <t>Vehicle Chessis No. :- 1)MEEBBA007L2716167</t>
+  </si>
+  <si>
+    <t>1) Enter valid data in  all the mandatory fields.           2)Enter valid details in the remianing fields.            3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>New Easy Care Agreement should get created followwing a confirmation message as "Easy Care Agreement Successfully Added."</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Easy Care Agreement by entering valid data in all the mandatory fields.</t>
+  </si>
+  <si>
+    <t>Last PMS Done field has two times of 10K PMS</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug Report </t>
+  </si>
+  <si>
+    <t>Project :-</t>
+  </si>
+  <si>
+    <t>Renault EW</t>
+  </si>
+  <si>
+    <t>Lead_Developer. :-Alok Srivastava</t>
+  </si>
+  <si>
+    <t>Created_By :-</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Bug Summary</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Renault EW(Easy Care Sales)</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_24</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_35</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_36</t>
+  </si>
+  <si>
+    <t>Easy_care_sales_TC_52</t>
+  </si>
+  <si>
+    <t>Bug_1</t>
+  </si>
+  <si>
+    <t>Dealer is on easy care agreement page</t>
+  </si>
+  <si>
+    <t>1)Enter URL
+2)Enter User name amd Pwd 
+3) hit on login
+4)Click on Easy Care Sales Module and Click on Add Easy care
+5)Enter valid vin and validate</t>
+  </si>
+  <si>
+    <t>1)https://renaultew.innov.co.in/index.php?module=ProjectTask&amp;view=Detail&amp;record=3031964
+2)usre name=S00074-Anshu
+3)Pwd-Welcome@123
+4)MEEBBA007L2716167</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alok srivastava </t>
+  </si>
+  <si>
+    <t>Sakshi</t>
+  </si>
+  <si>
+    <t>Lead Dev: Alok Srivastava</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>No. of test Written</t>
+  </si>
+  <si>
+    <t>No. of test executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t>Easy Care Claims</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Courier Details Update(Claim)</t>
+  </si>
+  <si>
+    <t>TC_Courier Details_17</t>
+  </si>
+  <si>
+    <t>06.11.2021</t>
+  </si>
+  <si>
+    <t>06.11.2022</t>
+  </si>
+  <si>
+    <t>06.11.2023</t>
+  </si>
+  <si>
+    <t>06.11.2024</t>
+  </si>
+  <si>
+    <t>06.11.2025</t>
+  </si>
+  <si>
+    <t>06.11.2026</t>
+  </si>
+  <si>
+    <t>06.11.2027</t>
+  </si>
+  <si>
+    <t>06.11.2028</t>
+  </si>
+  <si>
+    <t>06.11.2029</t>
+  </si>
+  <si>
+    <t>06.11.2030</t>
+  </si>
+  <si>
+    <t>06.11.2031</t>
+  </si>
+  <si>
+    <t>06.11.2032</t>
+  </si>
+  <si>
+    <t>06.11.2033</t>
+  </si>
+  <si>
+    <t>06.11.2034</t>
+  </si>
+  <si>
+    <t>06.11.2035</t>
+  </si>
+  <si>
+    <t>06.11.2036</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2898,8 +3072,55 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2930,8 +3151,62 @@
         <bgColor rgb="FF95B3D7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF95B3D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2991,11 +3266,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3029,41 +3320,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3097,24 +3358,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3145,24 +3391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3172,15 +3400,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3200,9 +3419,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3482,8 +3852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,35 +3873,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -3543,18 +3913,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -3568,16 +3938,16 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3589,43 +3959,43 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3636,7 +4006,7 @@
       <c r="B6" s="11">
         <v>12889</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="23">
         <v>44139</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -3655,7 +4025,7 @@
       <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="11"/>
@@ -3671,7 +4041,7 @@
       <c r="B7" s="11">
         <v>12889</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="23">
         <v>44139</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -3702,7 +4072,7 @@
       <c r="B8" s="11">
         <v>12889</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="23">
         <v>44139</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -3733,7 +4103,7 @@
       <c r="B9" s="11">
         <v>12889</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="23">
         <v>44139</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -3764,7 +4134,7 @@
       <c r="B10" s="11">
         <v>12889</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="23">
         <v>44139</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -3793,7 +4163,7 @@
       <c r="B11" s="11">
         <v>12889</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="23">
         <v>44139</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -3824,7 +4194,7 @@
       <c r="B12" s="11">
         <v>12889</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="23">
         <v>44139</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -3855,7 +4225,7 @@
       <c r="B13" s="11">
         <v>12889</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>44139</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -3886,7 +4256,7 @@
       <c r="B14" s="11">
         <v>12889</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="23">
         <v>44139</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -3917,7 +4287,7 @@
       <c r="B15" s="11">
         <v>12889</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="23">
         <v>44139</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -3948,10 +4318,10 @@
       <c r="B16" s="11">
         <v>12889</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="23">
         <v>44139</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -3979,7 +4349,7 @@
       <c r="B17" s="11">
         <v>12889</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="23">
         <v>44139</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -4008,7 +4378,7 @@
       <c r="B18" s="11">
         <v>12889</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="23">
         <v>44139</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -4549,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:M5"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,35 +4940,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -4610,18 +4980,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -4635,16 +5005,16 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
@@ -4656,43 +5026,43 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4972,19 +5342,19 @@
       <c r="C14" s="10">
         <v>44139</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>230</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="13" t="s">
         <v>228</v>
       </c>
       <c r="K14" s="9"/>
@@ -5003,21 +5373,21 @@
       <c r="C15" s="10">
         <v>44139</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>231</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="13" t="s">
         <v>233</v>
       </c>
       <c r="K15" s="9"/>
@@ -5036,21 +5406,21 @@
       <c r="C16" s="10">
         <v>44139</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>235</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="21"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="13" t="s">
         <v>236</v>
       </c>
       <c r="K16" s="9"/>
@@ -5069,21 +5439,21 @@
       <c r="C17" s="10">
         <v>44139</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="13" t="s">
         <v>238</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="13" t="s">
         <v>237</v>
       </c>
       <c r="K17" s="9"/>
@@ -5102,21 +5472,21 @@
       <c r="C18" s="10">
         <v>44139</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="13" t="s">
         <v>239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="21"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="13" t="s">
         <v>242</v>
       </c>
       <c r="K18" s="9"/>
@@ -5135,21 +5505,21 @@
       <c r="C19" s="10">
         <v>44139</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="13" t="s">
         <v>246</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="21"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="13" t="s">
         <v>245</v>
       </c>
       <c r="K19" s="9"/>
@@ -5168,21 +5538,21 @@
       <c r="C20" s="10">
         <v>44139</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="13" t="s">
         <v>243</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="21"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="13" t="s">
         <v>248</v>
       </c>
       <c r="K20" s="9"/>
@@ -5201,19 +5571,19 @@
       <c r="C21" s="10">
         <v>44139</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="13" t="s">
         <v>249</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="13" t="s">
         <v>250</v>
       </c>
       <c r="K21" s="9"/>
@@ -5232,19 +5602,19 @@
       <c r="C22" s="10">
         <v>44139</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="13" t="s">
         <v>251</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="13" t="s">
         <v>252</v>
       </c>
       <c r="K22" s="9"/>
@@ -5263,19 +5633,19 @@
       <c r="C23" s="10">
         <v>44139</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="13" t="s">
         <v>253</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="13" t="s">
         <v>254</v>
       </c>
       <c r="K23" s="9"/>
@@ -5294,19 +5664,19 @@
       <c r="C24" s="10">
         <v>44139</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="13" t="s">
         <v>255</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="13" t="s">
         <v>256</v>
       </c>
       <c r="K24" s="9"/>
@@ -5325,19 +5695,19 @@
       <c r="C25" s="10">
         <v>44139</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="13" t="s">
         <v>257</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="13" t="s">
         <v>258</v>
       </c>
       <c r="K25" s="9"/>
@@ -5356,19 +5726,19 @@
       <c r="C26" s="10">
         <v>44139</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="13" t="s">
         <v>259</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="13" t="s">
         <v>260</v>
       </c>
       <c r="K26" s="9"/>
@@ -5387,19 +5757,19 @@
       <c r="C27" s="10">
         <v>44139</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="13" t="s">
         <v>262</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="13" t="s">
         <v>263</v>
       </c>
       <c r="K27" s="9"/>
@@ -5907,7 +6277,7 @@
     </row>
     <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B43" s="9">
         <v>12889</v>
@@ -5940,7 +6310,7 @@
     </row>
     <row r="44" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="9">
         <v>12889</v>
@@ -5973,7 +6343,7 @@
     </row>
     <row r="45" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B45" s="9">
         <v>12889</v>
@@ -6006,7 +6376,7 @@
     </row>
     <row r="46" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B46" s="9">
         <v>12889</v>
@@ -6039,7 +6409,7 @@
     </row>
     <row r="47" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B47" s="9">
         <v>12889</v>
@@ -6072,7 +6442,7 @@
     </row>
     <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B48" s="9">
         <v>12889</v>
@@ -6105,7 +6475,7 @@
     </row>
     <row r="49" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" s="9">
         <v>12889</v>
@@ -6138,7 +6508,7 @@
     </row>
     <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B50" s="9">
         <v>12889</v>
@@ -6171,7 +6541,7 @@
     </row>
     <row r="51" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B51" s="9">
         <v>12889</v>
@@ -6204,7 +6574,7 @@
     </row>
     <row r="52" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="9">
         <v>12889</v>
@@ -6233,7 +6603,7 @@
     </row>
     <row r="53" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" s="9">
         <v>12889</v>
@@ -6262,7 +6632,7 @@
     </row>
     <row r="54" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="9">
         <v>12889</v>
@@ -6291,7 +6661,7 @@
     </row>
     <row r="55" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" s="9">
         <v>12889</v>
@@ -6320,7 +6690,7 @@
     </row>
     <row r="56" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" s="9">
         <v>12889</v>
@@ -6351,7 +6721,7 @@
     </row>
     <row r="57" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" s="9">
         <v>12889</v>
@@ -6386,7 +6756,7 @@
     </row>
     <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B58" s="9">
         <v>12889</v>
@@ -6415,7 +6785,7 @@
     </row>
     <row r="59" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="9">
         <v>12889</v>
@@ -6431,10 +6801,10 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
@@ -6447,7 +6817,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>86</v>
@@ -6456,10 +6826,10 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6470,21 +6840,21 @@
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
       <c r="D61" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
@@ -6495,19 +6865,19 @@
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="12"/>
       <c r="J62" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
@@ -6518,19 +6888,19 @@
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -6541,21 +6911,21 @@
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -6566,17 +6936,17 @@
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="12"/>
       <c r="J65" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
@@ -6587,21 +6957,21 @@
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J66" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
@@ -6612,21 +6982,21 @@
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
       <c r="D67" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="J67" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
@@ -6634,7 +7004,7 @@
     </row>
     <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B68" s="9">
         <v>12889</v>
@@ -6667,7 +7037,7 @@
     </row>
     <row r="69" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B69" s="9">
         <v>12889</v>
@@ -6700,7 +7070,7 @@
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B70" s="9">
         <v>12889</v>
@@ -6733,7 +7103,7 @@
     </row>
     <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B71" s="9">
         <v>12889</v>
@@ -6766,7 +7136,7 @@
     </row>
     <row r="72" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B72" s="9">
         <v>12889</v>
@@ -6799,7 +7169,7 @@
     </row>
     <row r="73" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B73" s="9">
         <v>12889</v>
@@ -6832,7 +7202,7 @@
     </row>
     <row r="74" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B74" s="9">
         <v>12889</v>
@@ -6865,7 +7235,7 @@
     </row>
     <row r="75" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B75" s="9">
         <v>12889</v>
@@ -6898,7 +7268,7 @@
     </row>
     <row r="76" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76" s="9">
         <v>12889</v>
@@ -6931,7 +7301,7 @@
     </row>
     <row r="77" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B77" s="9">
         <v>12889</v>
@@ -9801,10 +10171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9821,198 +10191,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="64">
+        <v>44141</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="56">
-        <v>44141</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="38" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37" t="s">
+      <c r="I4" s="38">
+        <v>12889</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>434</v>
       </c>
-      <c r="I4" s="59">
-        <v>12889</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="B5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="61" t="s">
+      <c r="L5" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="L5" s="61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="B6" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C6" s="44" t="s">
+      <c r="D6" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="31" t="s">
         <v>439</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="F6" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>440</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>553</v>
-      </c>
-      <c r="G6" s="46" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="B7" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B7" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="B8" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="B8" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>73</v>
@@ -10022,27 +10392,27 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="B9" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>73</v>
@@ -10052,27 +10422,27 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="43" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B10" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>73</v>
@@ -10082,25 +10452,27 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="B11" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>73</v>
@@ -10110,25 +10482,27 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="B12" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>73</v>
@@ -10138,23 +10512,25 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>460</v>
-      </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="9">
+        <v>12889</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>103</v>
       </c>
@@ -10166,25 +10542,27 @@
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="43" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>73</v>
@@ -10194,25 +10572,27 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="B15" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>73</v>
@@ -10222,25 +10602,27 @@
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="B16" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>73</v>
@@ -10254,21 +10636,23 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="B17" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>471</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="6" t="s">
-        <v>472</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>73</v>
@@ -10282,19 +10666,21 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="9">
+        <v>12889</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>111</v>
       </c>
@@ -10312,19 +10698,21 @@
       <c r="I18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="43" t="s">
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>73</v>
@@ -10340,17 +10728,19 @@
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="6" t="s">
-        <v>478</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>73</v>
@@ -10364,603 +10754,647 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="48" t="s">
+      <c r="D21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>483</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="B22" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="D22" s="48" t="s">
+      <c r="E22" s="33" t="s">
         <v>485</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>552</v>
+      <c r="F22" s="34" t="s">
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="43" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
+      <c r="D23" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="49"/>
-      <c r="I23" s="48" t="s">
+      <c r="H23" s="34"/>
+      <c r="I23" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="B24" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="51" t="s">
+      <c r="D24" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49" t="s">
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="B25" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>549</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="51" t="s">
-        <v>549</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>550</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>551</v>
-      </c>
-      <c r="G25" s="49" t="s">
+      <c r="D26" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="B28" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="33" t="s">
+        <v>592</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="33" t="s">
         <v>501</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>556</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49" t="s">
-        <v>557</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="48" t="s">
-        <v>558</v>
-      </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="51" t="s">
-        <v>560</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>559</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49" t="s">
-        <v>561</v>
-      </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="48" t="s">
-        <v>562</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>559</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48" t="s">
-        <v>593</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="B30" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33" t="s">
+        <v>506</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="48" t="s">
+      <c r="D31" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H29" s="49"/>
-      <c r="I29" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="51" t="s">
+      <c r="D32" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>505</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49" t="s">
-        <v>506</v>
-      </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="E32" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="B34" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>504</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>531</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="28" t="s">
+      <c r="D34" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="28" t="s">
         <v>519</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="43" t="s">
-        <v>520</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
-        <v>534</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="B35" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>501</v>
+      <c r="G35" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="28" t="s">
-        <v>528</v>
+      <c r="A36" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>527</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>501</v>
+        <v>528</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="28" t="s">
-        <v>532</v>
+      <c r="A37" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="B37" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="49" t="s">
-        <v>501</v>
+      <c r="G37" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>539</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="28" t="s">
-        <v>535</v>
+      <c r="A38" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>534</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="49" t="s">
-        <v>501</v>
+      <c r="G38" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="28" t="s">
-        <v>540</v>
+      <c r="A39" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>539</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>501</v>
+      <c r="G39" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="B40" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>541</v>
-      </c>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>545</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="28" t="s">
-        <v>542</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="49" t="s">
-        <v>501</v>
+      <c r="G40" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
-        <v>546</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="28" t="s">
-        <v>543</v>
+      <c r="A41" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="B41" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>542</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F41" s="7"/>
-      <c r="G41" s="49" t="s">
-        <v>501</v>
+      <c r="G41" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="B42" s="43"/>
+      <c r="A42" s="28" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="9">
+        <v>12889</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>281</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="49" t="s">
-        <v>501</v>
+      <c r="G42" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>35</v>
@@ -10970,23 +11404,25 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="43" t="s">
+      <c r="L42" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="B43" s="43"/>
+      <c r="A43" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="9">
+        <v>12889</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="49" t="s">
-        <v>501</v>
+      <c r="G43" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>35</v>
@@ -10996,15 +11432,17 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="43" t="s">
+      <c r="L43" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>583</v>
-      </c>
-      <c r="B44" s="43"/>
+      <c r="A44" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="9">
+        <v>12889</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>285</v>
       </c>
@@ -11013,283 +11451,402 @@
         <v>286</v>
       </c>
       <c r="F44" s="7"/>
-      <c r="G44" s="49" t="s">
-        <v>501</v>
+      <c r="G44" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>584</v>
-      </c>
-      <c r="B45" s="43"/>
+      <c r="A45" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="B45" s="9">
+        <v>12889</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>501</v>
+        <v>568</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="43" t="s">
+      <c r="L45" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>585</v>
-      </c>
-      <c r="B46" s="43"/>
+      <c r="A46" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="B46" s="9">
+        <v>12889</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="49" t="s">
-        <v>501</v>
+      <c r="G46" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>35</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="43" t="s">
+      <c r="L46" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
-        <v>586</v>
-      </c>
-      <c r="B47" s="43"/>
+      <c r="A47" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B47" s="9">
+        <v>12889</v>
+      </c>
       <c r="C47" s="7" t="s">
         <v>295</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="49" t="s">
-        <v>501</v>
+      <c r="G47" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="43" t="s">
+      <c r="L47" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>587</v>
-      </c>
-      <c r="B48" s="43"/>
+      <c r="A48" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B48" s="9">
+        <v>12889</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="49" t="s">
-        <v>501</v>
+      <c r="G48" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="43" t="s">
+      <c r="L48" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>588</v>
-      </c>
-      <c r="B49" s="43"/>
+      <c r="A49" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="B49" s="9">
+        <v>12889</v>
+      </c>
       <c r="C49" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="E49" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H49" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G49" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="I49" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="43" t="s">
+      <c r="L49" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>589</v>
-      </c>
-      <c r="B50" s="43"/>
+      <c r="A50" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="B50" s="9">
+        <v>12889</v>
+      </c>
       <c r="C50" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F50" s="7"/>
-      <c r="G50" s="49" t="s">
-        <v>501</v>
+      <c r="G50" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="43" t="s">
+      <c r="L50" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>590</v>
-      </c>
-      <c r="B51" s="43"/>
+      <c r="A51" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="B51" s="9">
+        <v>12889</v>
+      </c>
       <c r="C51" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="49" t="s">
-        <v>501</v>
+      <c r="G51" s="34" t="s">
+        <v>500</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="43" t="s">
+      <c r="L51" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>591</v>
-      </c>
-      <c r="B52" s="43"/>
+      <c r="A52" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B52" s="9">
+        <v>12889</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="43" t="s">
+      <c r="L52" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
-        <v>592</v>
-      </c>
-      <c r="B53" s="43"/>
+      <c r="A53" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B53" s="9">
+        <v>12889</v>
+      </c>
       <c r="C53" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="49" t="s">
-        <v>501</v>
-      </c>
-      <c r="H53" s="52" t="s">
+      <c r="G53" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>581</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>582</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="43" t="s">
-        <v>31</v>
+      <c r="L53" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B54" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="69" t="s">
+        <v>602</v>
+      </c>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="69" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B55" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C55" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B56" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>603</v>
+      </c>
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B57" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>606</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="70" t="s">
+        <v>604</v>
+      </c>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69" t="s">
+        <v>607</v>
+      </c>
+      <c r="H57" s="69"/>
+      <c r="I57" s="70" t="s">
+        <v>605</v>
+      </c>
+      <c r="L57" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -11310,8 +11867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11332,35 +11889,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -11372,18 +11929,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -11397,18 +11954,18 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3" t="s">
-        <v>308</v>
+        <v>640</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -11418,575 +11975,565 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C6" s="62">
+      <c r="B6" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="41">
         <v>44140</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C7" s="62">
+      <c r="B8" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C8" s="41">
         <v>44140</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D8" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="F8" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25" t="s">
+      <c r="H9" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="B8" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C8" s="62">
+    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="41">
         <v>44140</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D10" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C11" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C12" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C13" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C14" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C15" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C16" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C17" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C18" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C19" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C20" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C21" s="41">
+        <v>44140</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C9" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="F21" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="B10" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C10" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="B11" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C11" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="B12" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C12" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C13" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="B14" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C14" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B15" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C15" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B16" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C16" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C17" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="B18" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C18" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B19" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C19" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="B20" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C20" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B21" s="31">
-        <v>12889</v>
-      </c>
-      <c r="C21" s="62">
-        <v>44140</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="25" t="s">
-        <v>303</v>
-      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12010,7 +12557,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12021,41 +12568,42 @@
     <col min="4" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -12067,18 +12615,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -12092,395 +12640,624 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="63" t="s">
-        <v>596</v>
-      </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="K5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="15" t="s">
         <v>297</v>
       </c>
       <c r="B6" s="9">
         <v>12889</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="68" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="44" t="s">
         <v>302</v>
       </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="D7" s="68" t="s">
+      <c r="A7" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="68" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="44" t="s">
         <v>307</v>
       </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="66" t="s">
+      <c r="A8" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E9" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="45"/>
+      <c r="J9" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>646</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B19" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="D9" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="E9" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="F22" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="D10" s="66" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="D11" s="68" t="s">
-        <v>320</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>321</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="68" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="D12" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>323</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="D13" s="68" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="D14" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>314</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="66" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="D15" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="E15" s="68" t="s">
-        <v>314</v>
-      </c>
-      <c r="F15" s="68" t="s">
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="G15" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="68" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="D16" s="69" t="s">
-        <v>334</v>
-      </c>
-      <c r="E16" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="D17" s="69" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>335</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="69" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="D18" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="E18" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>598</v>
-      </c>
-      <c r="G18" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="69" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="D19" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>600</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="D20" s="69" t="s">
-        <v>599</v>
-      </c>
-      <c r="E20" s="69" t="s">
-        <v>600</v>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70" t="s">
-        <v>601</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="D21" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="D22" s="68" t="s">
-        <v>327</v>
-      </c>
-      <c r="E22" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="68" t="s">
-        <v>329</v>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -12499,4 +13276,375 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="83" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="J2" s="75"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>617</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80">
+        <v>44142</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="86">
+        <v>12889</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>607</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>635</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>636</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="89">
+        <v>13</v>
+      </c>
+      <c r="C4" s="89">
+        <v>13</v>
+      </c>
+      <c r="D4" s="90">
+        <v>13</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0</v>
+      </c>
+      <c r="F4" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="89">
+        <v>64</v>
+      </c>
+      <c r="C5" s="89">
+        <v>64</v>
+      </c>
+      <c r="D5" s="90">
+        <v>64</v>
+      </c>
+      <c r="E5" s="91">
+        <v>0</v>
+      </c>
+      <c r="F5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="93">
+        <v>52</v>
+      </c>
+      <c r="C6" s="93">
+        <v>52</v>
+      </c>
+      <c r="D6" s="94">
+        <v>51</v>
+      </c>
+      <c r="E6" s="95">
+        <v>1</v>
+      </c>
+      <c r="F6" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>640</v>
+      </c>
+      <c r="B7" s="93">
+        <v>16</v>
+      </c>
+      <c r="C7" s="93">
+        <v>10</v>
+      </c>
+      <c r="D7" s="94">
+        <v>10</v>
+      </c>
+      <c r="E7" s="95">
+        <v>0</v>
+      </c>
+      <c r="F7" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" s="93">
+        <v>9</v>
+      </c>
+      <c r="C8" s="93">
+        <v>9</v>
+      </c>
+      <c r="D8" s="94">
+        <v>9</v>
+      </c>
+      <c r="E8" s="95">
+        <v>0</v>
+      </c>
+      <c r="F8" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="89" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="93">
+        <v>17</v>
+      </c>
+      <c r="C9" s="93">
+        <v>17</v>
+      </c>
+      <c r="D9" s="94">
+        <v>17</v>
+      </c>
+      <c r="E9" s="95">
+        <v>0</v>
+      </c>
+      <c r="F9" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="89">
+        <f t="shared" ref="B10:F10" si="0">SUM(B6:B8)</f>
+        <v>77</v>
+      </c>
+      <c r="C10" s="89">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="D10" s="90">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E10" s="91">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PHPUpdateRenaultEW.xlsx
+++ b/PHPUpdateRenaultEW.xlsx
@@ -9,21 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="Agreement" sheetId="2" r:id="rId2"/>
-    <sheet name="easy_Care_Sales" sheetId="4" r:id="rId3"/>
-    <sheet name="EasyCareClaims" sheetId="10" r:id="rId4"/>
+    <sheet name="EasyCareClaims" sheetId="10" r:id="rId3"/>
+    <sheet name="easy_Care_Sales" sheetId="4" r:id="rId4"/>
     <sheet name="Courier_Details_update(Claim)" sheetId="3" r:id="rId5"/>
     <sheet name="Courier_Deatils_Update(AMC)" sheetId="5" r:id="rId6"/>
     <sheet name="BugReport" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="8" r:id="rId8"/>
     <sheet name="reports" sheetId="9" r:id="rId9"/>
+    <sheet name="Claim" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="898">
   <si>
     <t>Created By:-</t>
   </si>
@@ -2719,9 +2719,6 @@
     <t>To verify if the User is able to create new Easy Care Agreement by entering valid data in all the mandatory fields.</t>
   </si>
   <si>
-    <t>Last PMS Done field has two times of 10K PMS</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -2774,16 +2771,6 @@
   </si>
   <si>
     <t>Bug_1</t>
-  </si>
-  <si>
-    <t>Dealer is on easy care agreement page</t>
-  </si>
-  <si>
-    <t>1)Enter URL
-2)Enter User name amd Pwd 
-3) hit on login
-4)Click on Easy Care Sales Module and Click on Add Easy care
-5)Enter valid vin and validate</t>
   </si>
   <si>
     <t>1)https://renaultew.innov.co.in/index.php?module=ProjectTask&amp;view=Detail&amp;record=3031964
@@ -3324,9 +3311,6 @@
   <si>
     <t>Start date=2020-05-04
 End Date=2020-10-10</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t xml:space="preserve">User is downloading the record forEasy Care Claim Report </t>
@@ -4098,6 +4082,137 @@
   </si>
   <si>
     <t>Job Card number=ROKOKB21002187</t>
+  </si>
+  <si>
+    <t>to verify if the dealer is able to download the 
+Renault EW Claims dump report.</t>
+  </si>
+  <si>
+    <t>Dealer is already logged-in</t>
+  </si>
+  <si>
+    <t>Report should get download</t>
+  </si>
+  <si>
+    <t>to verify if the dealer is able to download the 
+ Renault Claim Dump For Assurant report.</t>
+  </si>
+  <si>
+    <t>To verify if the Doc. submission date time have been added in the 
+Renault EW Claims dump report.</t>
+  </si>
+  <si>
+    <t>Doc submission date should be added in the downloaded report and should be as per the doc submission time available on portal.</t>
+  </si>
+  <si>
+    <t>To verify if the Doc. submission date time have been added in the 
+Renault Claim Dump For Assurant report.</t>
+  </si>
+  <si>
+    <t>Reports_TC_23</t>
+  </si>
+  <si>
+    <t>Reports_TC_24</t>
+  </si>
+  <si>
+    <t>Reports_TC_25</t>
+  </si>
+  <si>
+    <t>Reports_TC_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Click on the Claims available at the menu section.                              2)Click on the Add  Claims.                                  </t>
+  </si>
+  <si>
+    <t>Creating New  Claims page should get open having  Claim related fields and Save and Cancel button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the User is able to get navigate to the Claims page.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify if the User is able to create new Claim by leaving all the mandatory fields blank.  </t>
+  </si>
+  <si>
+    <t>User is already logged in and is on New Claim  page.</t>
+  </si>
+  <si>
+    <t>User should not be able to create a new  Claim and the system must display a proper and specific validation message for each mandatory field as required. " All the mandatory fields marked with * are required.</t>
+  </si>
+  <si>
+    <t>User is already logged in and is on new Claim  page.</t>
+  </si>
+  <si>
+    <t>1) Leave  RIP Sales Number fields blank.             2)Enter valid details in the remianing fields.             3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>No Field name for agreement search</t>
+  </si>
+  <si>
+    <t>Claim_TC_1</t>
+  </si>
+  <si>
+    <t>field name is not there for agreement search</t>
+  </si>
+  <si>
+    <t>1)Enter URL
+2)Enter User name amd Pwd 
+3) hit on login
+4)Click on Claim  Module and Click on Add Claim
+5)Enter valid vin and validate</t>
+  </si>
+  <si>
+    <t>User(Dealer, Admin) is already logged in and is on New Claim  page.</t>
+  </si>
+  <si>
+    <t>calim</t>
+  </si>
+  <si>
+    <t>Claim_TC_2</t>
+  </si>
+  <si>
+    <t>Claim_TC_3</t>
+  </si>
+  <si>
+    <t>Claim_TC_4</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new  Claim by leaving  Agreement Number field blank and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>To verify if the details coming through the agreement number are non-editable or not.</t>
+  </si>
+  <si>
+    <t>User is already logged in and is on New  Claim  page.</t>
+  </si>
+  <si>
+    <t>1) Select REC SALES NUMBER                   2) try to edit the fields of  Claims Details section.</t>
+  </si>
+  <si>
+    <t>All the details of  Claims Details should be non-editable.</t>
+  </si>
+  <si>
+    <t>To verify if the User is able to create new Claim by Searching valid Agreement  Number  and enter valid details in the remaining fields.</t>
+  </si>
+  <si>
+    <t>1) Enter invalid data for Agreement Number  field.              2)Enter valid details in the remianing fields.            3)Click On Save Button.</t>
+  </si>
+  <si>
+    <t>Validation should appear "The cooling off period for ATW plan is 30 days, from certificate issue date. During cooling off period no service requests shall be admitted"</t>
+  </si>
+  <si>
+    <t>Validation msg "The cooling off period for ATW plan is 30 days, from certificate issue date. During cooling off period no service requests shall be admitted"</t>
+  </si>
+  <si>
+    <t>Claim_TC_5</t>
+  </si>
+  <si>
+    <t>Claim_TC_6</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Agreement number-RIP264244</t>
   </si>
 </sst>
 </file>
@@ -4442,7 +4557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4602,14 +4717,8 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4637,6 +4746,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4695,6 +4835,9 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4731,40 +4874,22 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5049,7 +5174,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5069,35 +5194,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -5109,18 +5234,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -5134,16 +5259,16 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
@@ -6110,6 +6235,357 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="98"/>
+      <c r="C2" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="82"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="85"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="114" t="s">
+        <v>896</v>
+      </c>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>868</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="110" t="s">
+        <v>869</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>871</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>872</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="110" t="s">
+        <v>873</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>885</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>874</v>
+      </c>
+      <c r="F9" s="110" t="s">
+        <v>875</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="110" t="s">
+        <v>732</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="110" t="s">
+        <v>886</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>887</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>888</v>
+      </c>
+      <c r="G10" s="115"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="110" t="s">
+        <v>889</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B11" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>890</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>872</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>891</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>897</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>893</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="110" t="s">
+        <v>892</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6138,35 +6614,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -6178,18 +6654,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -6203,16 +6679,16 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
@@ -7427,7 +7903,7 @@
         <v>109</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="12" t="s">
@@ -8318,7 +8794,7 @@
     </row>
     <row r="70" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B70" s="9">
         <v>12889</v>
@@ -8351,7 +8827,7 @@
     </row>
     <row r="71" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B71" s="9">
         <v>12889</v>
@@ -8384,7 +8860,7 @@
     </row>
     <row r="72" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B72" s="9">
         <v>12889</v>
@@ -8417,7 +8893,7 @@
     </row>
     <row r="73" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B73" s="9">
         <v>12889</v>
@@ -8450,7 +8926,7 @@
     </row>
     <row r="74" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B74" s="9">
         <v>12889</v>
@@ -8483,7 +8959,7 @@
     </row>
     <row r="75" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B75" s="9">
         <v>12889</v>
@@ -8516,7 +8992,7 @@
     </row>
     <row r="76" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B76" s="9">
         <v>12889</v>
@@ -8549,7 +9025,7 @@
     </row>
     <row r="77" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B77" s="9">
         <v>12889</v>
@@ -11419,10 +11895,1033 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="97">
+        <v>44144</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>608</v>
+      </c>
+      <c r="G4" s="88"/>
+      <c r="H4" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" s="38">
+        <v>12889</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B6" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="B7" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>816</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71" t="s">
+        <v>818</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71" t="s">
+        <v>818</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>819</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71" t="s">
+        <v>820</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71" t="s">
+        <v>821</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="72" t="s">
+        <v>822</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B12" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>823</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71" t="s">
+        <v>820</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71" t="s">
+        <v>824</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72" t="s">
+        <v>825</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B13" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B14" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B16" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B17" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B18" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B19" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B20" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>816</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71" t="s">
+        <v>818</v>
+      </c>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71" t="s">
+        <v>818</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="B21" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>807</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B23" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B24" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B25" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B26" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="F26" s="74">
+        <v>7474747474</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B27" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B28" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="F28" s="75">
+        <v>49710</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B29" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B30" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B31" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B32" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B33" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B34" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B35" s="9">
+        <v>12889</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11439,35 +12938,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="26" t="s">
         <v>429</v>
       </c>
@@ -11482,16 +12981,16 @@
       <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="94">
         <v>44141</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -11503,15 +13002,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="26"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="79"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="90" t="s">
         <v>432</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="26" t="s">
         <v>433</v>
       </c>
@@ -12087,7 +13586,7 @@
         <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="7"/>
@@ -12096,7 +13595,7 @@
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12108,19 +13607,19 @@
         <v>12889</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="7" t="s">
@@ -12128,7 +13627,7 @@
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12149,7 +13648,7 @@
         <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="7"/>
@@ -12158,7 +13657,7 @@
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12170,27 +13669,27 @@
         <v>12889</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>806</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="60" t="s">
+      <c r="L26" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12211,7 +13710,7 @@
         <v>93</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="7"/>
@@ -12220,7 +13719,7 @@
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12232,33 +13731,33 @@
         <v>12889</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="60" t="s">
+      <c r="L28" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" s="9">
         <v>12889</v>
@@ -12273,7 +13772,7 @@
         <v>93</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="7"/>
@@ -12282,7 +13781,7 @@
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12294,27 +13793,27 @@
         <v>12889</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12335,7 +13834,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="7"/>
@@ -12344,7 +13843,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="60" t="s">
+      <c r="L31" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12356,27 +13855,27 @@
         <v>12889</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12584,7 +14083,7 @@
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B40" s="9">
         <v>12889</v>
@@ -12616,7 +14115,7 @@
     </row>
     <row r="41" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B41" s="9">
         <v>12889</v>
@@ -13060,6 +14559,9 @@
       <c r="I55" s="50" t="s">
         <v>79</v>
       </c>
+      <c r="L55" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
@@ -13085,10 +14587,13 @@
       <c r="I56" s="50" t="s">
         <v>84</v>
       </c>
+      <c r="L56" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B57" s="9">
         <v>12889</v>
@@ -13110,10 +14615,13 @@
       <c r="I57" s="50" t="s">
         <v>94</v>
       </c>
+      <c r="L57" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B58" s="9">
         <v>12889</v>
@@ -13128,15 +14636,13 @@
         <v>577</v>
       </c>
       <c r="F58" s="50"/>
-      <c r="G58" s="50" t="s">
-        <v>580</v>
-      </c>
+      <c r="G58" s="50"/>
       <c r="H58" s="50"/>
       <c r="I58" s="51" t="s">
         <v>578</v>
       </c>
-      <c r="L58" t="s">
-        <v>581</v>
+      <c r="L58" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -13148,1027 +14654,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="100">
-        <v>44144</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>611</v>
-      </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="I4" s="38">
-        <v>12889</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>435</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="B6" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>730</v>
-      </c>
-      <c r="F6" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="B7" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="236.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="B8" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="B9" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="B10" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C10" s="103" t="s">
-        <v>820</v>
-      </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="103" t="s">
-        <v>821</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105" t="s">
-        <v>822</v>
-      </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105" t="s">
-        <v>822</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C11" s="105" t="s">
-        <v>823</v>
-      </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
-        <v>824</v>
-      </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105" t="s">
-        <v>825</v>
-      </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106" t="s">
-        <v>826</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="B12" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>827</v>
-      </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
-        <v>824</v>
-      </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105" t="s">
-        <v>828</v>
-      </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106" t="s">
-        <v>829</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="B13" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>838</v>
-      </c>
-      <c r="B14" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="B15" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="B16" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>841</v>
-      </c>
-      <c r="B17" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>747</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>842</v>
-      </c>
-      <c r="B18" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="B19" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C20" s="103" t="s">
-        <v>820</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E20" s="103" t="s">
-        <v>821</v>
-      </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105" t="s">
-        <v>822</v>
-      </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105" t="s">
-        <v>822</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="B21" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>811</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>813</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="B22" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>811</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>815</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="B23" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="B24" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="F24" s="108" t="s">
-        <v>785</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="B25" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="B26" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="F26" s="108">
-        <v>7474747474</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="B27" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>852</v>
-      </c>
-      <c r="B28" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="F28" s="109">
-        <v>49710</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="B29" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="B30" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="B31" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>856</v>
-      </c>
-      <c r="B32" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="B33" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>858</v>
-      </c>
-      <c r="B34" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>860</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="B35" s="9">
-        <v>12889</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14200,35 +14685,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -14240,18 +14725,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="85" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -14265,18 +14750,18 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -14867,8 +15352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14886,35 +15371,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -14926,18 +15411,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -14951,21 +15436,21 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="100" t="s">
         <v>568</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -15055,7 +15540,7 @@
         <v>12889</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>304</v>
@@ -15090,7 +15575,7 @@
         <v>12889</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>311</v>
@@ -15123,7 +15608,7 @@
         <v>12889</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>312</v>
@@ -15158,7 +15643,7 @@
         <v>12889</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>317</v>
@@ -15191,7 +15676,7 @@
         <v>12889</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>319</v>
@@ -15224,7 +15709,7 @@
         <v>12889</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>321</v>
@@ -15257,7 +15742,7 @@
         <v>12889</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>324</v>
@@ -15290,7 +15775,7 @@
         <v>12889</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>329</v>
@@ -15323,7 +15808,7 @@
         <v>12889</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D15" s="44" t="s">
         <v>326</v>
@@ -15356,7 +15841,7 @@
         <v>12889</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D16" s="45" t="s">
         <v>333</v>
@@ -15387,7 +15872,7 @@
         <v>12889</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>336</v>
@@ -15418,7 +15903,7 @@
         <v>12889</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>339</v>
@@ -15451,7 +15936,7 @@
         <v>12889</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D19" s="45" t="s">
         <v>344</v>
@@ -15482,7 +15967,7 @@
         <v>12889</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D20" s="45" t="s">
         <v>571</v>
@@ -15513,7 +15998,7 @@
         <v>12889</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D21" s="45" t="s">
         <v>348</v>
@@ -15540,13 +16025,13 @@
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B22" s="9">
         <v>12889</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D22" s="44" t="s">
         <v>326</v>
@@ -15594,7 +16079,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15605,83 +16090,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="101" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
-        <v>583</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="95" t="s">
-        <v>593</v>
-      </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="94" t="s">
-        <v>585</v>
-      </c>
-      <c r="J2" s="94"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="105" t="s">
+        <v>592</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="104" t="s">
+        <v>584</v>
+      </c>
+      <c r="J2" s="104"/>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
-        <v>586</v>
-      </c>
-      <c r="B3" s="93"/>
+      <c r="A3" s="103" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" s="103"/>
       <c r="C3" s="53" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>434</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>588</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="56" t="s">
         <v>589</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>590</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="56" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H4" s="56" t="s">
         <v>15</v>
@@ -15699,42 +16184,42 @@
         <v>21</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57">
+      <c r="A5" s="10">
         <v>44142</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>597</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="D5" s="58">
+        <v>12889</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>878</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>880</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="D5" s="60">
-        <v>12889</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>599</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -15752,10 +16237,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15767,187 +16252,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="98" t="s">
-        <v>584</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
+      <c r="A1" s="108" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="109" t="s">
+        <v>602</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="D3" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>607</v>
       </c>
-      <c r="C3" s="61" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="59">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59">
+        <v>13</v>
+      </c>
+      <c r="D4" s="60">
+        <v>13</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>881</v>
+      </c>
+      <c r="B5" s="59">
+        <v>6</v>
+      </c>
+      <c r="C5" s="59">
+        <v>6</v>
+      </c>
+      <c r="D5" s="60">
+        <v>5</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1</v>
+      </c>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="59">
+        <v>64</v>
+      </c>
+      <c r="C6" s="59">
+        <v>64</v>
+      </c>
+      <c r="D6" s="60">
+        <v>64</v>
+      </c>
+      <c r="E6" s="61">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="63">
+        <v>52</v>
+      </c>
+      <c r="C7" s="63">
+        <v>52</v>
+      </c>
+      <c r="D7" s="64">
+        <v>52</v>
+      </c>
+      <c r="E7" s="65">
+        <v>0</v>
+      </c>
+      <c r="F7" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" s="63">
+        <v>16</v>
+      </c>
+      <c r="C8" s="63">
+        <v>16</v>
+      </c>
+      <c r="D8" s="64">
+        <v>16</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" s="63" t="s">
+      <c r="B9" s="63">
+        <v>9</v>
+      </c>
+      <c r="C9" s="63">
+        <v>9</v>
+      </c>
+      <c r="D9" s="64">
+        <v>9</v>
+      </c>
+      <c r="E9" s="65">
+        <v>0</v>
+      </c>
+      <c r="F9" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" s="63">
+        <v>17</v>
+      </c>
+      <c r="C10" s="63">
+        <v>17</v>
+      </c>
+      <c r="D10" s="64">
+        <v>17</v>
+      </c>
+      <c r="E10" s="65">
+        <v>0</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>609</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="61">
-        <v>13</v>
-      </c>
-      <c r="C4" s="61">
-        <v>13</v>
-      </c>
-      <c r="D4" s="62">
-        <v>13</v>
-      </c>
-      <c r="E4" s="63">
-        <v>0</v>
-      </c>
-      <c r="F4" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="61">
-        <v>64</v>
-      </c>
-      <c r="C5" s="61">
-        <v>64</v>
-      </c>
-      <c r="D5" s="62">
-        <v>64</v>
-      </c>
-      <c r="E5" s="63">
-        <v>0</v>
-      </c>
-      <c r="F5" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="B6" s="65">
-        <v>52</v>
-      </c>
-      <c r="C6" s="65">
-        <v>52</v>
-      </c>
-      <c r="D6" s="66">
-        <v>51</v>
-      </c>
-      <c r="E6" s="67">
+      <c r="B11" s="59">
+        <f>SUM(B1:B10)</f>
+        <v>177</v>
+      </c>
+      <c r="C11" s="59">
+        <f>SUM(C1:C10)</f>
+        <v>177</v>
+      </c>
+      <c r="D11" s="60">
+        <f>SUM(D1:D10)</f>
+        <v>176</v>
+      </c>
+      <c r="E11" s="61">
         <v>1</v>
       </c>
-      <c r="F6" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="B7" s="65">
-        <v>16</v>
-      </c>
-      <c r="C7" s="65">
-        <v>10</v>
-      </c>
-      <c r="D7" s="66">
-        <v>10</v>
-      </c>
-      <c r="E7" s="67">
-        <v>0</v>
-      </c>
-      <c r="F7" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>611</v>
-      </c>
-      <c r="B8" s="65">
-        <v>9</v>
-      </c>
-      <c r="C8" s="65">
-        <v>9</v>
-      </c>
-      <c r="D8" s="66">
-        <v>9</v>
-      </c>
-      <c r="E8" s="67">
-        <v>0</v>
-      </c>
-      <c r="F8" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>568</v>
-      </c>
-      <c r="B9" s="65">
-        <v>17</v>
-      </c>
-      <c r="C9" s="65">
-        <v>17</v>
-      </c>
-      <c r="D9" s="66">
-        <v>17</v>
-      </c>
-      <c r="E9" s="67">
-        <v>0</v>
-      </c>
-      <c r="F9" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>612</v>
-      </c>
-      <c r="B10" s="61">
-        <f>SUM(B6:B8)</f>
-        <v>77</v>
-      </c>
-      <c r="C10" s="61">
-        <f>SUM(C6:C8)</f>
-        <v>71</v>
-      </c>
-      <c r="D10" s="62">
-        <f>SUM(D6:D8)</f>
-        <v>70</v>
-      </c>
-      <c r="E10" s="63">
-        <f>SUM(E6:E8)</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="64">
-        <f>SUM(F6:F8)</f>
+      <c r="F11" s="62">
+        <f>SUM(F7:F9)</f>
         <v>0</v>
       </c>
     </row>
@@ -15962,10 +16464,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15983,35 +16485,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="73" t="s">
+      <c r="D2" s="85"/>
+      <c r="E2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
@@ -16023,18 +16525,18 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76" t="s">
-        <v>641</v>
-      </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="73" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85" t="s">
+        <v>638</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -16048,18 +16550,18 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -16109,34 +16611,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B6" s="21">
-        <v>12889</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>646</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>648</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -16146,30 +16648,30 @@
     </row>
     <row r="7" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B7" s="21">
         <v>12889</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>667</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>644</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -16179,19 +16681,19 @@
     </row>
     <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B8" s="21">
         <v>12889</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>641</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>644</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -16200,7 +16702,7 @@
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -16210,28 +16712,28 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B9" s="21">
         <v>12889</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -16241,16 +16743,16 @@
     </row>
     <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B10" s="21">
         <v>12889</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -16258,7 +16760,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -16268,28 +16770,28 @@
     </row>
     <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B11" s="21">
         <v>12889</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -16299,26 +16801,26 @@
     </row>
     <row r="12" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B12" s="21">
         <v>12889</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -16328,26 +16830,26 @@
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B13" s="21">
         <v>12889</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -16357,26 +16859,26 @@
     </row>
     <row r="14" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B14" s="21">
         <v>12889</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -16386,30 +16888,30 @@
     </row>
     <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B15" s="21">
         <v>12889</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -16419,51 +16921,51 @@
     </row>
     <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B16" s="21">
         <v>12889</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>675</v>
-      </c>
       <c r="H16" s="11" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>581</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B17" s="21">
         <v>12889</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>27</v>
@@ -16473,389 +16975,471 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B18" s="21">
         <v>12889</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="G18" s="110" t="s">
-        <v>693</v>
+        <v>696</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>690</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B19" s="21">
         <v>12889</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>712</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>701</v>
-      </c>
       <c r="H19" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B20" s="21">
         <v>12889</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="F20" s="111" t="s">
-        <v>704</v>
+      <c r="F20" s="77" t="s">
+        <v>701</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B21" s="21">
         <v>12889</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>644</v>
-      </c>
       <c r="F21" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B22" s="21">
         <v>12889</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="111" t="s">
-        <v>704</v>
+      <c r="F22" s="77" t="s">
+        <v>701</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B23" s="21">
         <v>12889</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>710</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>644</v>
-      </c>
       <c r="F23" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B24" s="21">
         <v>12889</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="111" t="s">
-        <v>704</v>
+      <c r="F24" s="77" t="s">
+        <v>701</v>
       </c>
       <c r="G24" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>723</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>727</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>726</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B25" s="21">
         <v>12889</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>644</v>
-      </c>
       <c r="F25" s="11" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B26" s="21">
         <v>12889</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="111" t="s">
-        <v>704</v>
-      </c>
-      <c r="G26" s="110" t="s">
-        <v>724</v>
+      <c r="F26" s="77" t="s">
+        <v>701</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>721</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>726</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B27" s="21">
         <v>12889</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>711</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>644</v>
-      </c>
       <c r="F27" s="11" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B28" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B29" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B30" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B31" s="21">
+        <v>12889</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>863</v>
+      </c>
+      <c r="E31" s="111" t="s">
+        <v>858</v>
+      </c>
+      <c r="F31" s="110"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110" t="s">
+        <v>862</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -20132,30 +20716,6 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
-      <c r="F305" s="4"/>
-      <c r="G305" s="4"/>
-      <c r="H305" s="4"/>
-      <c r="I305" s="4"/>
-      <c r="J305" s="4"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
-      <c r="B306" s="4"/>
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
-      <c r="F306" s="4"/>
-      <c r="G306" s="4"/>
-      <c r="H306" s="4"/>
-      <c r="I306" s="4"/>
-      <c r="J306" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
